--- a/data/Foglio di lavoro senza nome.xlsx
+++ b/data/Foglio di lavoro senza nome.xlsx
@@ -1,387 +1,437 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Foglio1" sheetId="1" r:id="rId4"/>
+    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
-  <si>
-    <t>r_xy</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>A^-1</t>
-  </si>
-  <si>
-    <t>lambda</t>
-  </si>
-  <si>
-    <t>ingresso</t>
-  </si>
-  <si>
-    <t>Ts2</t>
-  </si>
-  <si>
-    <t>Ts3</t>
-  </si>
-  <si>
-    <t>scaffali</t>
-  </si>
-  <si>
-    <t>mu2</t>
-  </si>
-  <si>
-    <t>mu3</t>
-  </si>
-  <si>
-    <t>gastronomia</t>
-  </si>
-  <si>
-    <t>lambda2</t>
-  </si>
-  <si>
-    <t>lambda3</t>
-  </si>
-  <si>
-    <t>cassa</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>Ts4</t>
-  </si>
-  <si>
-    <t>mu4</t>
-  </si>
-  <si>
-    <t>lambda4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">r_xy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A^-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingresso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ts2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ts3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scaffali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gastronomia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ts4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/M/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">M/M/</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">∞</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
+  </numFmts>
+  <fonts count="10">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFC6E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA9D08E"/>
-        <bgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFC6E0B4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6E0B4"/>
-        <bgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5B9BD5"/>
-        <bgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="23">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="9">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Heading 1" xfId="20"/>
+    <cellStyle name="Accent 3" xfId="21"/>
+    <cellStyle name="Good" xfId="22"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFA9D08E"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF5B9BD5"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFC6E0B4"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -403,7 +453,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -425,7 +475,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -447,7 +497,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -469,99 +519,99 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>4.0</v>
+      <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O5" s="4">
-        <f>-F8</f>
-        <v>-0.3</v>
+      <c r="N5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <f aca="false">-F8</f>
+        <v>-0.2</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="5">
-        <f>B11*F6</f>
-        <v>0.524166667</v>
+      <c r="R5" s="5" t="n">
+        <f aca="false">B11*F6</f>
+        <v>0.330578512396694</v>
       </c>
       <c r="S5" s="5"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="3">
-        <v>1.0</v>
+      <c r="D6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="G6" s="7">
-        <f>1-F6</f>
-        <v>0.15</v>
+      <c r="F6" s="7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <f aca="false">1-F6</f>
+        <v>0.2</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="4">
-        <f>-G7</f>
-        <v>-0.2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>1.0</v>
+      <c r="N6" s="4" t="n">
+        <f aca="false">-G7</f>
+        <v>-0.15</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="5">
-        <f>B11*G6</f>
-        <v>0.09250000005</v>
+      <c r="R6" s="5" t="n">
+        <f aca="false">B11*G6</f>
+        <v>0.0826446280991735</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="3">
-        <v>2.0</v>
+      <c r="D7" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>1</v>
@@ -569,12 +619,12 @@
       <c r="F7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="H7" s="7">
-        <f>1-G7</f>
-        <v>0.8</v>
+      <c r="G7" s="7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <f aca="false">1-G7</f>
+        <v>0.85</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -586,27 +636,26 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="3">
-        <v>3.0</v>
+      <c r="D8" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="7">
-        <v>0.3</v>
+      <c r="F8" s="7" t="n">
+        <v>0.2</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="7">
-        <f>1-F8</f>
-        <v>0.7</v>
+      <c r="H8" s="7" t="n">
+        <f aca="false">1-F8</f>
+        <v>0.8</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -621,12 +670,12 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="3">
-        <v>4.0</v>
+      <c r="D9" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>1</v>
@@ -644,28 +693,30 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="5">
-        <f t="array" ref="N9:O10">MINVERSE(N5:O6)</f>
-        <v>1.063829787</v>
-      </c>
-      <c r="O9" s="5">
-        <v>0.3191489361702127</v>
+      <c r="N9" s="5" t="n">
+        <f aca="false" t="array" ref="N9:O10">MINVERSE(N5:O6)</f>
+        <v>1.03092783505155</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.206185567010309</v>
       </c>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1">
-        <f t="array" ref="Q9:Q10">MMULT(N9:O10,R5:R6)</f>
-        <v>0.5871453904</v>
+      <c r="Q9" s="1" t="n">
+        <f aca="false" t="array" ref="Q9:Q10">MMULT(N9:O10,R5:R6)</f>
+        <v>0.357842719604669</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="n">
+        <v>2.42</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -677,26 +728,27 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="5">
-        <v>0.21276595744680854</v>
-      </c>
-      <c r="O10" s="5">
-        <v>1.0638297872340425</v>
+      <c r="N10" s="5" t="n">
+        <v>0.154639175257732</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>1.03092783505155</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1">
-        <v>0.2099290781276596</v>
+      <c r="Q10" s="1" t="n">
+        <v>0.136321036039874</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.616666667</v>
+      <c r="B11" s="4" t="n">
+        <f aca="false">1/B10</f>
+        <v>0.413223140495868</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -717,7 +769,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -739,28 +791,28 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B13" s="10" t="s">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="4">
-        <v>15.0</v>
+      <c r="F13" s="4" t="n">
+        <v>8</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="4">
-        <v>3.0</v>
+      <c r="J13" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -773,29 +825,30 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B14" s="10" t="s">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="4">
-        <v>0.066666667</v>
+      <c r="F14" s="4" t="n">
+        <f aca="false">1/F13</f>
+        <v>0.125</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="4">
-        <f>1/J13</f>
-        <v>0.3333333333</v>
+      <c r="J14" s="4" t="n">
+        <f aca="false">1/J13</f>
+        <v>0.333333333333333</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -808,30 +861,30 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B15" s="10" t="s">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="1">
-        <f>Q9</f>
-        <v>0.5871453904</v>
+      <c r="F15" s="1" t="n">
+        <f aca="false">Q9</f>
+        <v>0.357842719604669</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="1">
-        <f>Q10</f>
-        <v>0.2099290781</v>
+      <c r="J15" s="1" t="n">
+        <f aca="false">Q10</f>
+        <v>0.136321036039874</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -844,27 +897,30 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B16" s="10" t="s">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="n">
+        <f aca="false">F15/F14</f>
+        <v>2.86274175683735</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="1">
-        <f>J15/(2*J14)</f>
-        <v>0.3148936172</v>
+      <c r="J16" s="1" t="n">
+        <f aca="false">J15/J14</f>
+        <v>0.408963108119622</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -877,7 +933,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -899,17 +955,16 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="8">
-        <f>19/6</f>
-        <v>3.166666667</v>
+      <c r="F18" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -926,17 +981,17 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="1">
-        <f>1/F18</f>
-        <v>0.3157894737</v>
+      <c r="F19" s="1" t="n">
+        <f aca="false">1/F18</f>
+        <v>0.333333333333333</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -953,17 +1008,17 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="1">
-        <f>(F15*H7)+(J15*H8)</f>
-        <v>0.616666667</v>
+      <c r="F20" s="1" t="n">
+        <f aca="false">0.5* ((F15*H7)+(J15*H8))</f>
+        <v>0.206611570247934</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -980,17 +1035,17 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="1">
-        <f>F20/(2*F19)</f>
-        <v>0.9763888894</v>
+      <c r="F21" s="1" t="n">
+        <f aca="false">F20/F19</f>
+        <v>0.619834710743802</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1007,7 +1062,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1029,7 +1084,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1051,7 +1106,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1074,6 +1129,248 @@
       <c r="T24" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B4:L15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="J5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">Foglio1!F18</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">Foglio1!F13</f>
+        <v>8</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">Foglio1!J13</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <f aca="false">Foglio1!F19</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">Foglio1!F14</f>
+        <v>0.125</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">Foglio1!J14</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">Foglio1!F20</f>
+        <v>0.206611570247934</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">Foglio1!F15</f>
+        <v>0.357842719604669</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">Foglio1!J15</f>
+        <v>0.136321036039874</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">Foglio1!F21</f>
+        <v>0.619834710743802</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">Foglio1!F16</f>
+        <v>2.86274175683735</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">Foglio1!J16</f>
+        <v>0.408963108119622</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <f aca="false">C10/(1-C10)</f>
+        <v>1.6304347826087</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">G10</f>
+        <v>2.86274175683735</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">K10/(1-K10)</f>
+        <v>0.691941761568401</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">(1/C8)/(1-C10)</f>
+        <v>7.89130434782609</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">G7</f>
+        <v>8</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">(1/K8)/(1-K10)</f>
+        <v>5.0758252847052</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="12" t="n">
+        <f aca="false"> C12 -C10</f>
+        <v>1.01060007186489</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="12" t="n">
+        <f aca="false"> K12 -K10</f>
+        <v>0.28297865344878</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="12" t="n">
+        <f aca="false">C13-C7</f>
+        <v>4.89130434782609</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="12" t="n">
+        <f aca="false">K13-K7</f>
+        <v>2.0758252847052</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/Foglio di lavoro senza nome.xlsx
+++ b/data/Foglio di lavoro senza nome.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
   <si>
     <t xml:space="preserve">r_xy</t>
   </si>
@@ -113,6 +113,15 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Teorico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Half Width</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ts</t>
   </si>
   <si>
@@ -139,7 +148,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -163,6 +172,29 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -181,14 +213,6 @@
       <b val="true"/>
       <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
@@ -196,20 +220,30 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF006600"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +260,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -247,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -255,8 +301,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -280,81 +341,124 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="24" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading 1" xfId="20"/>
-    <cellStyle name="Accent 3" xfId="21"/>
-    <cellStyle name="Good" xfId="22"/>
+    <cellStyle name="Accent 3 2" xfId="20"/>
+    <cellStyle name="Good 3" xfId="21"/>
+    <cellStyle name="Heading 1 1" xfId="22"/>
+    <cellStyle name="Accent 2" xfId="23"/>
+    <cellStyle name="Note" xfId="24"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -371,7 +475,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFA9D08E"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF5B9BD5"/>
       <rgbColor rgb="FF993366"/>
@@ -393,7 +497,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFA9D08E"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -402,10 +506,10 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -418,6 +522,717 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Cassa 1/2
+Confronto tra valori Teorici e Simulati</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teorico</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>teorico</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$14:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$14:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.01060007186489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.89130434782609</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>simulato</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>simulato</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$14:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$14:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="51370717"/>
+        <c:axId val="69522071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="51370717"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69522071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69522071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51370717"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Gastronomia
+Confronto tra valori Teorici e Simulati</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teorico</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>teorico</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$L$14:$L$15</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$M$14:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.28297865344878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0758252847052</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>simulato</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>simulato</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$L$14:$L$15</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$N$14:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.2674</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="85800394"/>
+        <c:axId val="12500588"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="85800394"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="12500588"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="12500588"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85800394"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>534600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>461880</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>20520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="534600" y="3511440"/>
+        <a:ext cx="6429600" cy="3616560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>358200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>284400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>81000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7673400" y="3572640"/>
+        <a:ext cx="6428520" cy="3615840"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -425,7 +1240,7 @@
   </sheetPr>
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -635,7 +1450,6 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
@@ -1144,10 +1958,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:L15"/>
+  <dimension ref="A4:R52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1158,16 +1972,18 @@
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="J4" s="10" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="L4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="11" t="s">
@@ -1175,196 +1991,984 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="L5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="13" t="n">
         <f aca="false">Foglio1!F18</f>
         <v>3</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="0" t="n">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="G7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="13" t="n">
         <f aca="false">Foglio1!F13</f>
         <v>8</v>
       </c>
-      <c r="J7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="I7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="13" t="n">
         <f aca="false">Foglio1!J13</f>
         <v>3</v>
       </c>
+      <c r="N7" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="13" t="n">
         <f aca="false">Foglio1!F19</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="G8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="13" t="n">
         <f aca="false">Foglio1!F14</f>
         <v>0.125</v>
       </c>
-      <c r="J8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="I8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="13" t="n">
         <f aca="false">Foglio1!J14</f>
         <v>0.333333333333333</v>
       </c>
+      <c r="N8" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="13" t="n">
         <f aca="false">Foglio1!F20</f>
         <v>0.206611570247934</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="G9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="H9" s="13" t="n">
         <f aca="false">Foglio1!F15</f>
         <v>0.357842719604669</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="I9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="M9" s="13" t="n">
         <f aca="false">Foglio1!J15</f>
         <v>0.136321036039874</v>
       </c>
+      <c r="N9" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="13" t="n">
         <f aca="false">Foglio1!F21</f>
         <v>0.619834710743802</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="D10" s="0" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="13" t="n">
         <f aca="false">Foglio1!F16</f>
         <v>2.86274175683735</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="I10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="M10" s="13" t="n">
         <f aca="false">Foglio1!J16</f>
         <v>0.408963108119622</v>
       </c>
+      <c r="N10" s="0" t="n">
+        <v>0.4045</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="13" t="n">
         <f aca="false">C10/(1-C10)</f>
         <v>1.6304347826087</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <f aca="false">G10</f>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="G12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="13" t="n">
+        <f aca="false">H10</f>
         <v>2.86274175683735</v>
       </c>
-      <c r="J12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <f aca="false">K10/(1-K10)</f>
+      <c r="I12" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="13" t="n">
+        <f aca="false">M10/(1-M10)</f>
         <v>0.691941761568401</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="0" t="n">
+      <c r="B13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="13" t="n">
         <f aca="false">(1/C8)/(1-C10)</f>
         <v>7.89130434782609</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <f aca="false">G7</f>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="13" t="n">
+        <f aca="false">H7</f>
         <v>8</v>
       </c>
-      <c r="J13" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <f aca="false">(1/K8)/(1-K10)</f>
+      <c r="I13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="13" t="n">
+        <f aca="false">(1/M8)/(1-M10)</f>
         <v>5.0758252847052</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="12" t="n">
-        <f aca="false"> C12 -C10</f>
+      <c r="B14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="16" t="n">
+        <f aca="false">C12 -C10</f>
         <v>1.01060007186489</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="12" t="n">
-        <f aca="false"> K12 -K10</f>
+      <c r="D14" s="0" t="n">
+        <v>1.0013</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="16" t="n">
+        <f aca="false">M12 -M10</f>
         <v>0.28297865344878</v>
       </c>
+      <c r="N14" s="0" t="n">
+        <v>0.2674</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="12" t="n">
+      <c r="B15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="16" t="n">
         <f aca="false">C13-C7</f>
         <v>4.89130434782609</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="12" t="n">
-        <f aca="false">K13-K7</f>
+      <c r="D15" s="0" t="n">
+        <v>4.4847</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="16" t="n">
+        <f aca="false">M13-M7</f>
         <v>2.0758252847052</v>
       </c>
+      <c r="N15" s="0" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="L4:O4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="L5:O5"/>
   </mergeCells>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" priority="2" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>Sheet2!$C$14-Sheet2!$E$14</formula>
+      <formula>Sheet2!$C$14+Sheet2!$E$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" priority="3" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>Sheet2!$C$15-Sheet2!$E$15</formula>
+      <formula>Sheet2!$C$15+Sheet2!$E$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="cellIs" priority="4" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>Sheet2!$M$14-Sheet2!$O$14</formula>
+      <formula>Sheet2!$M$14+Sheet2!$O$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15">
+    <cfRule type="cellIs" priority="5" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>Sheet2!$M$15-Sheet2!$O$15</formula>
+      <formula>Sheet2!$M$15+Sheet2!$O$15</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1372,5 +2976,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Foglio di lavoro senza nome.xlsx
+++ b/data/Foglio di lavoro senza nome.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="34">
   <si>
     <t xml:space="preserve">r_xy</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t xml:space="preserve">lambda4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modello Migliorato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modello Originale</t>
   </si>
   <si>
     <t xml:space="preserve">M/M/1</t>
@@ -174,6 +180,14 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -190,6 +204,13 @@
       <b val="true"/>
       <sz val="18"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -218,21 +239,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -252,6 +258,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFC6E0B4"/>
       </patternFill>
@@ -260,12 +272,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
         <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
@@ -317,7 +323,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -347,66 +353,76 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -414,37 +430,60 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="24" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="24" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="26" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Accent 3 2" xfId="20"/>
-    <cellStyle name="Good 3" xfId="21"/>
-    <cellStyle name="Heading 1 1" xfId="22"/>
-    <cellStyle name="Accent 2" xfId="23"/>
-    <cellStyle name="Note" xfId="24"/>
+    <cellStyle name="Accent 2 1" xfId="20"/>
+    <cellStyle name="Accent 3 2" xfId="21"/>
+    <cellStyle name="Good 3" xfId="22"/>
+    <cellStyle name="Heading 1 1" xfId="23"/>
+    <cellStyle name="Note 2" xfId="24"/>
+    <cellStyle name="Heading 1" xfId="25"/>
+    <cellStyle name="Good" xfId="26"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
@@ -597,6 +636,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -675,6 +715,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -720,17 +761,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="51370717"/>
-        <c:axId val="69522071"/>
+        <c:axId val="28736903"/>
+        <c:axId val="38449265"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51370717"/>
+        <c:axId val="28736903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -752,7 +793,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69522071"/>
+        <c:crossAx val="38449265"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -760,7 +801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69522071"/>
+        <c:axId val="38449265"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +816,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -797,7 +838,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51370717"/>
+        <c:crossAx val="28736903"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -920,6 +961,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -998,6 +1040,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1043,17 +1086,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="85800394"/>
-        <c:axId val="12500588"/>
+        <c:axId val="61027826"/>
+        <c:axId val="63961230"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85800394"/>
+        <c:axId val="61027826"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1075,7 +1118,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12500588"/>
+        <c:crossAx val="63961230"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1083,7 +1126,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12500588"/>
+        <c:axId val="63961230"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,7 +1141,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1120,7 +1163,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85800394"/>
+        <c:crossAx val="61027826"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1179,9 +1222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>461880</xdr:colOff>
+      <xdr:colOff>461520</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1189,8 +1232,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="534600" y="3511440"/>
-        <a:ext cx="6429600" cy="3616560"/>
+        <a:off x="534600" y="3629160"/>
+        <a:ext cx="6429240" cy="3616200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1209,9 +1252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>284400</xdr:colOff>
+      <xdr:colOff>284040</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1219,8 +1262,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7673400" y="3572640"/>
-        <a:ext cx="6428520" cy="3615840"/>
+        <a:off x="7673400" y="3690000"/>
+        <a:ext cx="6428160" cy="3615480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1238,10 +1281,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1449,7 +1492,6 @@
       <c r="N7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
@@ -1942,6 +1984,46 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <f aca="false">1/E33</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <f aca="false">(1/3) * ((F15*H7)+(J15*H8))</f>
+        <v>0.137741046831956</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <f aca="false">E35/E34</f>
+        <v>0.413223140495868</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1958,992 +2040,1106 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:R52"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="L4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="L4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="G5" s="11" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="L5" s="11" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="L5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="12" t="s">
+      <c r="D6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="12" t="s">
+      <c r="I6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>25</v>
       </c>
+      <c r="N6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="13" t="n">
+      <c r="B7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="14" t="n">
         <f aca="false">Foglio1!F18</f>
         <v>3</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="G7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="13" t="n">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="G7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="14" t="n">
         <f aca="false">Foglio1!F13</f>
         <v>8</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="13" t="n">
+      <c r="L7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="14" t="n">
         <f aca="false">Foglio1!J13</f>
         <v>3</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="N7" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="13" t="n">
+      <c r="B8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="14" t="n">
         <f aca="false">Foglio1!F19</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="G8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="13" t="n">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="G8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="14" t="n">
         <f aca="false">Foglio1!F14</f>
         <v>0.125</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="13" t="n">
+      <c r="L8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="14" t="n">
         <f aca="false">Foglio1!J14</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="N8" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="14" t="n">
         <f aca="false">Foglio1!F20</f>
         <v>0.206611570247934</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="G9" s="13" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="G9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="13" t="n">
+      <c r="H9" s="14" t="n">
         <f aca="false">Foglio1!F15</f>
         <v>0.357842719604669</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="13" t="n">
+      <c r="M9" s="14" t="n">
         <f aca="false">Foglio1!J15</f>
         <v>0.136321036039874</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="N9" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="C10" s="14" t="n">
         <f aca="false">Foglio1!F21</f>
         <v>0.619834710743802</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="16" t="n">
         <v>0.627</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="14" t="n">
         <v>0.02</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="13" t="n">
+      <c r="H10" s="14" t="n">
         <f aca="false">Foglio1!F16</f>
         <v>2.86274175683735</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="13" t="n">
+      <c r="M10" s="14" t="n">
         <f aca="false">Foglio1!J16</f>
         <v>0.408963108119622</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="16" t="n">
         <v>0.4045</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="14" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="13" t="n">
+      <c r="B12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="14" t="n">
         <f aca="false">C10/(1-C10)</f>
         <v>1.6304347826087</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="G12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="13" t="n">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="G12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="14" t="n">
         <f aca="false">H10</f>
         <v>2.86274175683735</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="13" t="n">
+      <c r="L12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="14" t="n">
         <f aca="false">M10/(1-M10)</f>
         <v>0.691941761568401</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="13" t="n">
+      <c r="B13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="14" t="n">
         <f aca="false">(1/C8)/(1-C10)</f>
         <v>7.89130434782609</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="G13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="13" t="n">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="G13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="14" t="n">
         <f aca="false">H7</f>
         <v>8</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="13" t="n">
+      <c r="L13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="14" t="n">
         <f aca="false">(1/M8)/(1-M10)</f>
         <v>5.0758252847052</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="16" t="n">
+      <c r="B14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <f aca="false">C12 -C10</f>
         <v>1.01060007186489</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="19" t="n">
         <v>1.0013</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="14" t="n">
         <v>0.16</v>
       </c>
-      <c r="L14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="16" t="n">
+      <c r="L14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="0" t="n">
         <f aca="false">M12 -M10</f>
         <v>0.28297865344878</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14" s="19" t="n">
         <v>0.2674</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14" s="14" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="16" t="n">
+      <c r="B15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <f aca="false">C13-C7</f>
         <v>4.89130434782609</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="19" t="n">
         <v>4.4847</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="14" t="n">
         <v>0.6</v>
       </c>
-      <c r="L15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="16" t="n">
+      <c r="L15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="0" t="n">
         <f aca="false">M13-M7</f>
         <v>2.0758252847052</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15" s="19" t="n">
         <v>1.905</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15" s="14" t="n">
         <v>0.28</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+    </row>
+    <row r="47" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+    </row>
+    <row r="50" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="14"/>
+      <c r="B50" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
+      <c r="A52" s="14"/>
+      <c r="C52" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="14" t="n">
+        <f aca="false">Foglio1!E33</f>
+        <v>3</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="14" t="n">
+        <f aca="false">Foglio1!E34</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="14" t="n">
+        <f aca="false">Foglio1!E35</f>
+        <v>0.137741046831956</v>
+      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="14" t="n">
+        <f aca="false">Foglio1!E36</f>
+        <v>0.413223140495868</v>
+      </c>
+      <c r="D56" s="19" t="n">
+        <v>0.4128</v>
+      </c>
+      <c r="E56" s="14" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="14" t="n">
+        <f aca="false">C56/(1-C56)</f>
+        <v>0.704225352112677</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="14" t="n">
+        <f aca="false">(1/C54)/(1-C56)</f>
+        <v>5.11267605633803</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <f aca="false">C58 -C56</f>
+        <v>0.291002211616809</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>0.3011</v>
+      </c>
+      <c r="E60" s="14" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <f aca="false">C59-C53</f>
+        <v>2.11267605633803</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>2.1186</v>
+      </c>
+      <c r="E61" s="14" t="n">
+        <v>0.34</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="L5:O5"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
   </mergeCells>
   <conditionalFormatting sqref="D14">
     <cfRule type="cellIs" priority="2" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -2969,6 +3165,24 @@
       <formula>Sheet2!$M$15+Sheet2!$O$15</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" priority="6" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>Sheet2!$C$60-Sheet2!$E$60</formula>
+      <formula>Sheet2!$C$60+Sheet2!$E$60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" priority="7" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>Sheet2!$C$61-Sheet2!$E$61</formula>
+      <formula>Sheet2!$C$61+Sheet2!$E$61</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="cellIs" priority="8" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>Sheet2!$C$56-Sheet2!$E$56</formula>
+      <formula>Sheet2!$C$56+Sheet2!$E$56</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
